--- a/src/VNEXT/Dora.School/wwwroot/template/teachingtask.xlsx
+++ b/src/VNEXT/Dora.School/wwwroot/template/teachingtask.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
   <si>
     <t>教师与学生</t>
   </si>
@@ -1203,15 +1203,6 @@
     <t>结束周次</t>
   </si>
   <si>
-    <t>教室编号</t>
-  </si>
-  <si>
-    <t>星期</t>
-  </si>
-  <si>
-    <t>上课节次</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -1225,9 +1216,6 @@
   </si>
   <si>
     <t>201714110,201714111</t>
-  </si>
-  <si>
-    <t>第一周</t>
   </si>
   <si>
     <t>ss</t>
@@ -1316,10 +1304,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2498,12 +2486,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2541,19 +2529,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C1" t="s">
         <v>366</v>
       </c>
       <c r="D1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -2578,22 +2566,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2603,16 +2591,16 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="8:10">
@@ -2624,30 +2612,30 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2663,11 +2651,11 @@
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="13" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -2693,17 +2681,17 @@
       <c r="F8" s="6"/>
       <c r="J8" s="15"/>
       <c r="K8" s="14" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
     <row r="10" spans="10:13">
       <c r="J10" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
@@ -2711,7 +2699,7 @@
     <row r="11" spans="10:13">
       <c r="J11" s="12"/>
       <c r="K11" s="14" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -2719,7 +2707,7 @@
     <row r="12" spans="10:13">
       <c r="J12" s="12"/>
       <c r="K12" s="14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -4591,21 +4579,20 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="7" max="7" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>360</v>
       </c>
@@ -4627,28 +4614,19 @@
       <c r="G1" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="B2" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="11" t="s">
+      <c r="D2" s="33" t="s">
         <v>373</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>376</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
@@ -4656,20 +4634,11 @@
       <c r="F2" s="11">
         <v>4</v>
       </c>
-      <c r="G2" s="16">
-        <v>201714110</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="I2" s="16">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="G2" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4677,11 +4646,8 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4689,9 +4655,6 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
